--- a/docs/charts.xlsx
+++ b/docs/charts.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="Grafico1" sheetId="2" r:id="rId1"/>
-    <sheet name="Foglio1" sheetId="1" r:id="rId2"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Foglio1!$B$7:$E$10</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Foglio1!$F$7:$F$10</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Foglio1!$B$7:$E$10</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Foglio1!$F$7:$F$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Foglio1!$B$7:$E$10</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Foglio1!$F$7:$F$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -136,215 +137,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1431635919"/>
-        <c:axId val="1431839551"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1431635919"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1431839551"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1431839551"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1431635919"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
 </file>
 
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,550 +264,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="381">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1451,58 +700,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9300882" cy="6079191"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1827,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>51082</v>
+        <v>51081</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1868,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1902,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="3">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,7 +1154,7 @@
       </c>
       <c r="F8">
         <f>F5</f>
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1964,7 +1175,7 @@
       </c>
       <c r="F9">
         <f>F4-F8</f>
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1979,7 +1190,7 @@
       </c>
       <c r="F10">
         <f>F3-F4</f>
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
   </sheetData>

--- a/docs/charts.xlsx
+++ b/docs/charts.xlsx
@@ -17,10 +17,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Foglio1!$B$7:$E$10</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Foglio1!$F$7:$F$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Foglio1!$B$7:$E$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Foglio1!$F$7:$F$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Foglio1!$B$7:$E$10</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Foglio1!$F$7:$F$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>ds1</t>
   </si>
@@ -52,16 +48,22 @@
     <t>no-unique</t>
   </si>
   <si>
-    <t>dataset</t>
-  </si>
-  <si>
-    <t>num. Elementi</t>
-  </si>
-  <si>
     <t>final</t>
   </si>
   <si>
     <t>no-final</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Righe (intestazione esclusa)</t>
+  </si>
+  <si>
+    <t>calcolati autoaticamente</t>
+  </si>
+  <si>
+    <t>si possono modificare</t>
   </si>
 </sst>
 </file>
@@ -85,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,8 +100,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,21 +115,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -152,7 +180,6 @@
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="sunburst" uniqueId="{ED4618AD-31BD-4610-9608-915C5DDAA662}">
@@ -199,18 +226,6 @@
             </cx:spPr>
           </cx:dataPt>
           <cx:dataLabels pos="ctr">
-            <cx:txPr>
-              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0"/>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT" sz="1400" b="1" i="0"/>
-              </a:p>
-            </cx:txPr>
             <cx:visibility seriesName="0" categoryName="1" value="1"/>
             <cx:separator>
 </cx:separator>
@@ -704,15 +719,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1036,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,30 +1063,34 @@
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="F2">
         <v>51081</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1081,8 +1100,9 @@
       <c r="F3">
         <v>2777</v>
       </c>
+      <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1095,8 +1115,9 @@
       <c r="F4">
         <v>1627</v>
       </c>
+      <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1110,21 +1131,23 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
         <v>1329</v>
       </c>
+      <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1135,8 +1158,11 @@
         <f>F2-F3</f>
         <v>48304</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1150,14 +1176,15 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <f>F5</f>
         <v>1329</v>
       </c>
+      <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1171,14 +1198,15 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <f>F4-F8</f>
         <v>298</v>
       </c>
+      <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1192,10 +1220,14 @@
         <f>F3-F4</f>
         <v>1150</v>
       </c>
+      <c r="G10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
